--- a/pred_ohlcv/54_21/2019-11-02 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 BCH ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>266.4990079200001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>940.20325299</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>877.65885299</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>885.97235299</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>875.12005299</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>968.1722529899999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>987.9161529899999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>587.8895105899995</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>607.5189105899996</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>579.3569105899995</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>648.2326105899995</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>591.7348105899995</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>621.0205105899995</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>607.8581105899995</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>610.0124105899995</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>608.0124105899995</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>598.9035105899995</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>607.7585105899996</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>759.8495105899996</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>820.8844105899996</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>762.3703105899996</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>724.1552105899996</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>632.4183105899996</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>617.7052105899995</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>632.2309105899996</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>658.0243105899996</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>645.2167105899996</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>645.2167105899996</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>657.4039105899996</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>857.2679105899995</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>859.9544105899995</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>871.3596105899995</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>762.6044105899996</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>749.8041105899996</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>755.5782105899996</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>729.0509105899996</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>723.0280105899996</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>706.9053105899995</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>697.6505105899995</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>696.6884105899995</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>714.7661105899996</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>710.3010105899996</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>600.3568822599997</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>613.4991822599997</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>618.7237822599997</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>631.3997822599997</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>624.8825822599997</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>603.0912822599997</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>603.0912822599997</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>654.2079822599998</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>650.5261822599998</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>659.4272822599999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>659.4272822599999</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>665.8951484299998</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>664.4573516499999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>670.0531005099998</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>668.6082005099998</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>668.6082005099998</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>668.6082005099998</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>665.9702005099998</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>665.9702005099998</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>687.8953434599998</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>683.7274434599998</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>699.3365434599998</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>698.7429434599998</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>697.7237434599998</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>697.7237434599998</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>697.7237434599998</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>663.7237434599998</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>905.2255678799999</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>922.8450678799999</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>933.9696678799999</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>896.1746294899999</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>849.1421294899999</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>849.1421294899999</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>846.9340294899999</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>870.2429294899999</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>880.41122949</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>879.2791294899999</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>879.3149294899999</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>879.16162949</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>839.49372949</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>846.5155075299999</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>848.1875075299999</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>844.91710753</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>844.91710753</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>845.63536125</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>782.1835612499999</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>791.9338975799999</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>758.8357975799998</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>697.5915975799999</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>697.6860975799999</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>658.3350975799999</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>709.6273975799999</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>704.2926975799999</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>696.1225975799998</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>662.2088975799999</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>662.6617975799999</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>660.6617975799999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>641.7547975799998</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>581.5211975799998</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>549.2199975799998</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>553.7868975799998</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>553.7868975799998</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>553.4868975799999</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>554.1605975799999</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>554.1605975799999</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>554.1605975799999</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>554.00789758</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>555.53074613</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>553.65134613</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>554.32374613</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>558.79434613</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>550.46864613</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>550.47864613</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>547.25124613</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>545.63224613</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>535.0862461299999</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>536.6124976499999</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>536.6124976499999</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>536.6124976499999</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>540.9361976499999</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>576.39129765</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>576.39129765</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>704.19699765</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>705.80419765</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>703.77422515</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>703.77422515</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>703.77422515</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>704.06022515</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>661.82152515</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>697.81562515</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>698.83672515</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>698.83672515</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>652.68852515</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>654.4592251500001</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>658.1388251500001</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>637.6872251500001</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>696.5782251500001</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>698.8458251500001</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>675.0147251500001</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>706.7064251500001</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>706.7064251500001</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>732.4537251500001</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>732.4537251500001</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>687.07982515</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>645.96032515</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>645.96032515</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>596.49692515</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>613.99602515</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>573.31552515</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>582.25572515</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>574.83632515</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>574.83632515</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>482.52412515</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>509.95152515</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>525.46632515</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>505.14602515</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>530.16582515</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>519.75432515</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>519.75432515</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>521.75432515</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>521.75432515</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>518.61132515</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>519.4683251499999</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>516.24902515</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>518.39022515</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>533.24652515</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>507.82602515</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>631.43882515</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>631.43882515</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>648.35822515</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>650.70012515</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>665.35752515</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>614.33982515</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>621.55012515</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>621.55012515</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>618.66332515</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>623.79272515</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>623.3020251500001</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>622.2811251500001</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>625.41492515</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>620.11522515</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>619.90022515</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>633.63332515</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>633.63332515</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>619.59562515</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>624.17362515</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>574.7577251499999</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>574.46952515</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>574.46952515</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>571.31652515</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>554.77162515</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>550.8483251499999</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>541.5736251499999</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>545.9968655999999</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>518.7564655999998</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>518.8650655999999</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>535.4081655999998</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>638.2791655999998</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>636.9510655999999</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>636.9510655999999</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>647.4785655999999</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>647.2630655999999</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>665.6906655999999</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>627.4151655999999</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>627.4151655999999</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>651.9087655999999</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>645.5087655999999</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>607.3977656</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>583.9546656</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>539.1441656</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>539.1441656</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>539.2559656</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>484.6725784000001</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>457.5780784000001</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>458.7762784000001</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>455.4555784000001</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>468.3286784000001</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>490.3155784000001</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>489.9563784000001</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>495.2807784000001</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>495.2751784000001</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>495.2751784000001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>500.2441784000001</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>500.9812784000001</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>508.9737784000001</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>508.9737784000001</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>530.4214784000002</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>557.6365784000002</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>582.1346784000002</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>576.2293784000002</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>568.3040784000002</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>570.3822784000002</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>538.3827784000002</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>560.8119784000003</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>560.8119784000003</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>561.4168784000003</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>577.1399784000004</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>577.1399784000004</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>508.0909784000004</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>514.7060784000004</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>508.1285784000004</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>519.9812784000004</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>588.0308784000003</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>588.0308784000003</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>563.0308784000003</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>567.7445784000004</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>574.5484784000004</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>545.6332784000003</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>560.7906784000004</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>558.2029784000003</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>558.4837784000003</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>565.0884784000003</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>561.8963784000003</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>565.4427784000003</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>553.3506784000003</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>554.5805784000004</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>553.8438784000003</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>546.4164784000003</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>544.4164784000003</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>519.2063784000003</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>435.9538784000003</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>435.2435784000003</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>435.3857784000003</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>429.7391784000003</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>429.9059784000003</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>426.7608784000003</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>426.7608784000003</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>426.7608784000003</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>443.3057784000003</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>424.0976784000003</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>442.6237776600003</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>432.7675776600003</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>580.5144752100003</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>580.5144752100003</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>620.3176752100003</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>618.6632752100003</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>618.6632752100003</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>617.0462752100003</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>664.5445752100003</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>639.1068752100003</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>639.1068752100003</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>639.1068752100003</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>639.8790752100003</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>817.9743231200003</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>817.7924231200003</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>817.5244231200003</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>817.5244231200003</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>829.5244231200003</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>825.8507231200002</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>825.8507231200002</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>798.8022231200002</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>798.9022231200003</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>791.5727231200002</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>791.5727231200002</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>791.5727231200002</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>801.2562231200002</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>801.2562231200002</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>801.2662231200002</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>797.6680231200002</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>781.2010231200002</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>789.8471231200002</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>783.3183231200002</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>783.3183231200002</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>783.8033231200002</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>783.8033231200002</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>783.8033231200002</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>764.5160231200002</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>762.8042231200002</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>765.0075231200002</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>765.1642231200002</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>765.1642231200002</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>759.1533231200002</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>760.0937231200002</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>760.0937231200002</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>758.8896231200001</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>760.7001231200002</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>764.0795231200002</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>764.2083231200002</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>748.3339231200001</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>748.4134231200002</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>818.4205231200002</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>893.5832231200002</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>892.7193231200002</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>919.0191231200002</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>901.8201231200003</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>848.8570231200003</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>851.7866231200004</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>851.7866231200004</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>849.5950231200004</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>853.6751231200004</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>846.6213231200004</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>855.9448231200004</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>839.3617231200003</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>833.2622231200003</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>833.2622231200003</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>833.2622231200003</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>827.2622231200003</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>829.2622231200003</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>799.0882231200003</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>729.5457231200003</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>736.4288231200003</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>739.6858231200002</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>740.1002231200002</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>739.4297231200003</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>739.4297231200003</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>734.4297231200003</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>734.4497292200003</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>763.0470292200004</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>756.5431292200003</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>744.8834292200003</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>744.8834292200003</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>741.3975292200003</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>809.0702292200002</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>819.0703292200002</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>820.2569292200002</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>826.3621292200002</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>742.0816292200002</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>764.6282782100002</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>763.8890782100002</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>758.2355782100002</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>774.4650782100002</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>739.8059782100001</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>739.5754782100001</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>741.2434782100001</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>726.2434782100001</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>708.8596782100002</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>709.8409782100002</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>702.7517782100002</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>754.1461782100002</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>754.1461782100002</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>790.4445782100003</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>798.9730782100003</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>798.9918782100003</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>798.9918782100003</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>813.1107782100004</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>829.1184782100004</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>831.9184782100003</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>827.9397782100003</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>819.5398782100003</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>826.5977782100003</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>825.9583141500003</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>825.9583141500003</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>825.9573141500003</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>854.7904141500003</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>854.7904141500003</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>861.8892141500003</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>858.2699141500003</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>858.2689141500003</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>858.2679141500004</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>844.6397141500004</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>858.8674141500004</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>879.4674141500004</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>877.2378141500004</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>891.6397141500004</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>950.2783141500004</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>949.7621141500003</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>963.4178141500004</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>1014.54821415</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>990.0819141500003</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>887.3681229000003</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>881.8112229000003</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>881.8112229000003</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>881.8112229000003</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>883.2002229000003</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>898.2002229000003</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>916.5373229000003</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>1000.4025229</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>1003.9294229</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>986.4004229000002</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>1154.4049229</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>1151.3884229</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>1132.0617229</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>1147.0617229</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>1117.1203229</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>1118.2085229</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>1166.0003229</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>1181.0003229</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>1187.5670229</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>1168.0858229</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>1091.3896229</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>1133.5498229</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>1119.0318229</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>1121.0318229</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>1128.1426229</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>1113.9029229</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>1113.9029229</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>1109.8877229</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>1108.2329229</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>1108.2329229</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>1109.0634229</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>1109.0634229</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>1111.2689229</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>1112.67281226</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>1113.68868239</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>1116.92378669</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>1101.92378669</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>1132.64598669</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>1131.50598669</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>1206.77898669</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1416.29698669</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>1130.92858669</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>1129.48278669</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>1119.095486689999</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1137.020286689999</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>1144.502986689999</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>1184.392686689999</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>1209.883686689999</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>1153.63688669</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>1051.34848669</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>1934.251243489999</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>1824.665443489999</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>1740.532580809999</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>1766.581980809999</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>1766.581980809999</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>1792.043780809999</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>1736.656580809999</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>1768.470280809999</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>1768.434080809999</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>1768.434080809999</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>1724.800727039999</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>1656.242827039999</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>1820.350927039999</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>1769.329227039999</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>1850.252327039999</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>1825.661627039999</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>1799.020427039999</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>1869.266427039999</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>1885.647227039999</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>1949.525327039999</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>1949.525327039999</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>1921.639927039999</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>1918.103327039999</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>1921.603327039999</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>1998.330027039999</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>1994.347027039999</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>1994.347027039999</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>1994.847027039999</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>2001.354827039999</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>1983.344927039999</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>1991.190927039999</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>1925.760971629999</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>1923.987015579999</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>1923.850215579999</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>1923.850215579999</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>1940.072615579999</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>2008.975215579999</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>2042.630615579999</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>2035.277115579999</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>2326.939314269999</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>2425.178415579999</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>2398.868815579999</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>2386.258815579999</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>2386.258815579999</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>2384.326015579999</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>2390.654515579999</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>2409.004615579999</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>2409.004615579999</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>2409.543915579999</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>2402.855915579999</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>2402.855915579999</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>2402.855915579999</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 BCH ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>940.20325299</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>877.65885299</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>885.97235299</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>875.12005299</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>968.1722529899999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>987.9161529899999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>587.8895105899995</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>607.5189105899996</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>579.3569105899995</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>648.2326105899995</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>591.7348105899995</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>621.0205105899995</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>607.8581105899995</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>610.0124105899995</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>608.0124105899995</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>598.9035105899995</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>607.7585105899996</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>759.8495105899996</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>820.8844105899996</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>762.3703105899996</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>724.1552105899996</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>632.4183105899996</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>617.7052105899995</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>632.2309105899996</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>658.0243105899996</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>645.2167105899996</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>645.2167105899996</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>657.4039105899996</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>857.2679105899995</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>859.9544105899995</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>871.3596105899995</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>762.6044105899996</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>749.8041105899996</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>755.5782105899996</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>729.0509105899996</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>723.0280105899996</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>706.9053105899995</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>697.6505105899995</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>696.6884105899995</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>714.7661105899996</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>710.3010105899996</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>600.3568822599997</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>613.4991822599997</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>618.7237822599997</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>631.3997822599997</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>624.8825822599997</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>603.0912822599997</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>603.0912822599997</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>654.2079822599998</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>650.5261822599998</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>659.4272822599999</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>659.4272822599999</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>665.8951484299998</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>664.4573516499999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>670.0531005099998</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>668.6082005099998</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>668.6082005099998</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>668.6082005099998</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>665.9702005099998</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>665.9702005099998</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>687.8953434599998</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>683.7274434599998</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>699.3365434599998</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>698.7429434599998</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>697.7237434599998</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>697.7237434599998</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>697.7237434599998</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>663.7237434599998</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>905.2255678799999</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>922.8450678799999</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>933.9696678799999</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>896.1746294899999</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>849.1421294899999</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>849.1421294899999</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>846.9340294899999</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>870.2429294899999</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>880.41122949</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>879.2791294899999</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>879.3149294899999</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>879.16162949</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>839.49372949</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>846.5155075299999</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>848.1875075299999</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>844.91710753</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>844.91710753</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>845.63536125</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>782.1835612499999</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>791.9338975799999</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>758.8357975799998</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>697.5915975799999</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>697.6860975799999</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>658.3350975799999</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>709.6273975799999</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>704.2926975799999</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>696.1225975799998</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>662.2088975799999</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>662.6617975799999</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>660.6617975799999</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>641.7547975799998</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>581.5211975799998</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>549.2199975799998</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>553.7868975799998</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>553.7868975799998</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>553.4868975799999</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>554.1605975799999</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>554.1605975799999</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>554.1605975799999</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>554.00789758</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>555.53074613</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>553.65134613</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>554.32374613</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>558.79434613</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>550.46864613</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>550.47864613</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>547.25124613</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>545.63224613</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>535.0862461299999</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>536.6124976499999</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>536.6124976499999</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>536.6124976499999</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>540.9361976499999</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>576.39129765</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>576.39129765</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>704.19699765</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>705.80419765</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>703.77422515</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>703.77422515</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>703.77422515</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>704.06022515</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>661.82152515</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>697.81562515</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>698.83672515</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>698.83672515</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>652.68852515</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>654.4592251500001</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>658.1388251500001</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>637.6872251500001</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>696.5782251500001</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>698.8458251500001</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>675.0147251500001</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>706.7064251500001</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>706.7064251500001</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>732.4537251500001</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>732.4537251500001</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>687.07982515</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>645.96032515</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>645.96032515</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>596.49692515</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>613.99602515</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>573.31552515</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>582.25572515</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>574.83632515</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>574.83632515</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>482.52412515</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>509.95152515</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>525.46632515</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>505.14602515</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>530.16582515</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>519.75432515</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>519.75432515</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>521.75432515</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>521.75432515</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>518.61132515</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>519.4683251499999</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>516.24902515</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>518.39022515</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>533.24652515</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>507.82602515</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>631.43882515</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>631.43882515</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>648.35822515</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>650.70012515</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>665.35752515</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>614.33982515</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>621.55012515</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>621.55012515</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>618.66332515</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>623.79272515</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>623.3020251500001</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>622.2811251500001</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>625.41492515</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>620.11522515</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>619.90022515</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>633.63332515</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>633.63332515</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>619.59562515</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>624.17362515</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>574.7577251499999</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>574.46952515</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>574.46952515</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>571.31652515</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>554.77162515</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>550.8483251499999</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>541.5736251499999</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>545.9968655999999</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>518.7564655999998</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>518.8650655999999</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>535.4081655999998</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>638.2791655999998</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>636.9510655999999</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>636.9510655999999</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>647.4785655999999</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>647.2630655999999</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>665.6906655999999</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>627.4151655999999</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>627.4151655999999</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>651.9087655999999</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>645.5087655999999</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>607.3977656</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>583.9546656</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>539.1441656</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>539.1441656</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>539.2559656</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>484.6725784000001</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>486.5055784000001</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>457.5780784000001</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>458.7762784000001</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>455.4555784000001</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>468.3286784000001</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>490.3155784000001</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>489.9563784000001</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>495.2807784000001</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>495.2751784000001</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>495.2751784000001</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>500.2441784000001</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>500.9812784000001</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>508.9737784000001</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>508.9737784000001</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>530.4214784000002</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>557.6365784000002</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>582.1346784000002</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>576.2293784000002</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>568.3040784000002</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>570.3822784000002</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>538.3827784000002</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>560.8119784000003</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>560.8119784000003</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>561.4168784000003</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>577.1399784000004</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>577.1399784000004</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>508.0909784000004</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>514.7060784000004</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>508.1285784000004</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>519.9812784000004</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>588.0308784000003</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>588.0308784000003</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>563.0308784000003</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>567.7445784000004</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>574.5484784000004</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>545.6332784000003</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>560.7906784000004</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>558.2029784000003</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>558.4837784000003</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>565.0884784000003</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>561.8963784000003</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>565.4427784000003</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>553.3506784000003</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>554.5805784000004</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>553.8438784000003</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>546.4164784000003</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>544.4164784000003</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>519.2063784000003</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>435.9538784000003</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>435.2435784000003</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>435.3857784000003</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>429.7391784000003</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>429.9059784000003</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>426.7608784000003</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>426.7608784000003</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>426.7608784000003</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>443.3057784000003</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>424.0976784000003</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>442.6237776600003</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>432.7675776600003</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>580.5144752100003</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>580.5144752100003</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>620.3176752100003</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>618.6632752100003</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>618.6632752100003</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>617.0462752100003</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>664.5445752100003</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>639.1068752100003</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>639.1068752100003</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>639.1068752100003</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>639.8790752100003</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>817.9743231200003</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>817.7924231200003</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>817.5244231200003</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>817.5244231200003</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>829.5244231200003</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>825.8507231200002</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>825.8507231200002</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>798.8022231200002</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>798.9022231200003</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>791.5727231200002</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>791.5727231200002</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>791.5727231200002</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>801.2562231200002</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>801.2562231200002</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>801.2662231200002</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>797.6680231200002</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>781.2010231200002</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>789.8471231200002</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>783.3183231200002</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>783.3183231200002</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>783.8033231200002</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>783.8033231200002</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>783.8033231200002</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>764.5160231200002</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>762.8042231200002</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>765.0075231200002</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>765.1642231200002</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>765.1642231200002</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>759.1533231200002</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>760.0937231200002</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>760.0937231200002</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>758.8896231200001</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>760.7001231200002</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>764.0795231200002</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>764.2083231200002</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>748.3339231200001</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>748.4134231200002</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>818.4205231200002</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>893.5832231200002</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>892.7193231200002</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>919.0191231200002</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>901.8201231200003</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>848.8570231200003</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>851.7866231200004</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>851.7866231200004</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>849.5950231200004</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>853.6751231200004</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>846.6213231200004</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>855.9448231200004</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>839.3617231200003</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>833.2622231200003</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>833.2622231200003</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>833.2622231200003</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>827.2622231200003</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>829.2622231200003</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>799.0882231200003</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>729.5457231200003</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>736.4288231200003</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>739.6858231200002</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>740.1002231200002</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>739.4297231200003</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>739.4297231200003</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>734.4297231200003</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>734.4497292200003</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>763.0470292200004</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>756.5431292200003</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>744.8834292200003</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>744.8834292200003</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>741.3975292200003</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>809.0702292200002</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>819.0703292200002</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>820.2569292200002</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>826.3621292200002</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>742.0816292200002</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>764.6282782100002</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>763.8890782100002</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>758.2355782100002</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>774.4650782100002</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>739.8059782100001</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>739.5754782100001</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>741.2434782100001</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>726.2434782100001</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>708.8596782100002</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>709.8409782100002</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>702.7517782100002</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>754.1461782100002</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>754.1461782100002</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>790.4445782100003</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>798.9730782100003</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>798.9918782100003</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>798.9918782100003</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>813.1107782100004</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>829.1184782100004</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>831.9184782100003</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>827.9397782100003</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>819.5398782100003</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>826.5977782100003</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>825.9583141500003</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>825.9583141500003</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>825.9573141500003</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>854.7904141500003</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>854.7904141500003</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>861.8892141500003</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>858.2699141500003</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>858.2689141500003</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>858.2679141500004</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>844.6397141500004</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>858.8674141500004</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>879.4674141500004</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>877.2378141500004</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>891.6397141500004</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>950.2783141500004</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>949.7621141500003</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>963.4178141500004</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>1014.54821415</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>990.0819141500003</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>887.3681229000003</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>881.8112229000003</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>881.8112229000003</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>881.8112229000003</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>883.2002229000003</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>898.2002229000003</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>916.5373229000003</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>1000.4025229</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>1003.9294229</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>986.4004229000002</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>1154.4049229</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>1151.3884229</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>1132.0617229</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>1147.0617229</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>1117.1203229</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>1118.2085229</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>1166.0003229</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>1181.0003229</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>1187.5670229</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>1168.0858229</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>1091.3896229</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>1133.5498229</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>1119.0318229</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>1121.0318229</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>1128.1426229</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>1113.9029229</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>1113.9029229</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>1109.8877229</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>1108.2329229</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>1108.2329229</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>1109.0634229</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>1109.0634229</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>1111.2689229</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>1112.67281226</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>1113.68868239</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>1116.92378669</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>1101.92378669</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>1117.40398669</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>1132.64598669</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>1131.50598669</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>1206.77898669</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1416.29698669</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>1130.92858669</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>1129.48278669</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>1119.095486689999</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1137.020286689999</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>1144.502986689999</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>1184.392686689999</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>1209.883686689999</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>1153.63688669</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>1051.34848669</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>1934.251243489999</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>1824.665443489999</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>1740.532580809999</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>1766.581980809999</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>1766.581980809999</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>1792.043780809999</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>1736.656580809999</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>1768.470280809999</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>1768.434080809999</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>1768.434080809999</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>1724.800727039999</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>1656.242827039999</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>1820.350927039999</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>1769.329227039999</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>1850.252327039999</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>1825.661627039999</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>1799.020427039999</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>1873.560027039999</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>1869.266427039999</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>1885.647227039999</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>1949.525327039999</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>1949.525327039999</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>1921.639927039999</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>1918.103327039999</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>1921.603327039999</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>1998.330027039999</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>1994.347027039999</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>1994.347027039999</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>1994.847027039999</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>2001.354827039999</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>1983.344927039999</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>1991.190927039999</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>1925.760971629999</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>1923.987015579999</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>1959.905515579999</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>2326.939314269999</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>2376.593514269999</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>2373.616514269999</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>2542.883615579999</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>2442.430315579999</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>2425.178415579999</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>2398.868815579999</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>2386.258815579999</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>2402.855915579999</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
